--- a/RS.xlsx
+++ b/RS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\d\my\zivotopis\Cover Letters\20211022 Erste Digital - APEX\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3458AEEC-FCC2-4E26-BF5C-F1FCEAD639AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF90C21-FFE1-4CE5-8935-B226AB282238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{FD3040FD-0FEE-4246-AE20-728F00F28B76}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -36,12 +36,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
     <t>Rufnummer</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
     <t>Serbien</t>
   </si>
   <si>
-    <t>Asim</t>
-  </si>
-  <si>
-    <t>ADEMOV</t>
-  </si>
-  <si>
     <t>01189525</t>
   </si>
   <si>
@@ -99,12 +87,6 @@
     <t>Alexander ALEXANDROV YORDANOV</t>
   </si>
   <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>ALEXANDROV YORDANOV</t>
-  </si>
-  <si>
     <t>01197836</t>
   </si>
   <si>
@@ -123,12 +105,6 @@
     <t>Atidzhe ALIEVA-VELI</t>
   </si>
   <si>
-    <t>Atidzhe</t>
-  </si>
-  <si>
-    <t>ALIEVA-VELI</t>
-  </si>
-  <si>
     <t>01197848</t>
   </si>
   <si>
@@ -147,12 +123,6 @@
     <t>Angel DZHAMBAZKI</t>
   </si>
   <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t>DZHAMBAZKI</t>
-  </si>
-  <si>
     <t>01124873</t>
   </si>
   <si>
@@ -171,12 +141,6 @@
     <t>Ivo HRISTOV</t>
   </si>
   <si>
-    <t>Ivo</t>
-  </si>
-  <si>
-    <t>HRISTOV</t>
-  </si>
-  <si>
     <t>01197846</t>
   </si>
   <si>
@@ -195,12 +159,6 @@
     <t>Radan KANEV</t>
   </si>
   <si>
-    <t>Radan</t>
-  </si>
-  <si>
-    <t>KANEV</t>
-  </si>
-  <si>
     <t>01197839</t>
   </si>
   <si>
@@ -219,12 +177,6 @@
     <t>Andrey KOVATCHEV</t>
   </si>
   <si>
-    <t>Andrey</t>
-  </si>
-  <si>
-    <t>KOVATCHEV</t>
-  </si>
-  <si>
     <t>0197968</t>
   </si>
   <si>
@@ -243,12 +195,6 @@
     <t>Ilhan KYUCHYUK</t>
   </si>
   <si>
-    <t>Ilhan</t>
-  </si>
-  <si>
-    <t>KYUCHYUK</t>
-  </si>
-  <si>
     <t>01124866</t>
   </si>
   <si>
@@ -267,12 +213,6 @@
     <t>Eva MAYDELL</t>
   </si>
   <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>MAYDELL</t>
-  </si>
-  <si>
     <t>0198341</t>
   </si>
   <si>
@@ -291,12 +231,6 @@
     <t>Iskra MIHAYLOVA</t>
   </si>
   <si>
-    <t>Iskra</t>
-  </si>
-  <si>
-    <t>MIHAYLOVA</t>
-  </si>
-  <si>
     <t>01125128</t>
   </si>
   <si>
@@ -315,9 +249,6 @@
     <t>Andrey NOVAKOV</t>
   </si>
   <si>
-    <t>NOVAKOV</t>
-  </si>
-  <si>
     <t>01107212</t>
   </si>
   <si>
@@ -336,12 +267,6 @@
     <t>Tsvetelina PENKOVA</t>
   </si>
   <si>
-    <t>Tsvetelina</t>
-  </si>
-  <si>
-    <t>PENKOVA</t>
-  </si>
-  <si>
     <t>01197845</t>
   </si>
   <si>
@@ -360,12 +285,6 @@
     <t>Emil RADEV</t>
   </si>
   <si>
-    <t>Emil</t>
-  </si>
-  <si>
-    <t>RADEV</t>
-  </si>
-  <si>
     <t>01124850</t>
   </si>
   <si>
@@ -384,9 +303,6 @@
     <t>Andrey SLABAKOV</t>
   </si>
   <si>
-    <t>SLABAKOV</t>
-  </si>
-  <si>
     <t>01197849</t>
   </si>
   <si>
@@ -408,12 +324,6 @@
     <t>Sergei STANISHEV</t>
   </si>
   <si>
-    <t>Sergei</t>
-  </si>
-  <si>
-    <t>STANISHEV</t>
-  </si>
-  <si>
     <t>01124852</t>
   </si>
   <si>
@@ -432,12 +342,6 @@
     <t>Petar VITANOV</t>
   </si>
   <si>
-    <t>Petar</t>
-  </si>
-  <si>
-    <t>VITANOV</t>
-  </si>
-  <si>
     <t>01197844</t>
   </si>
   <si>
@@ -457,12 +361,6 @@
   </si>
   <si>
     <t>Elena YONCHEVA</t>
-  </si>
-  <si>
-    <t>Elena</t>
-  </si>
-  <si>
-    <t>YONCHEVA</t>
   </si>
   <si>
     <t>01197842</t>
@@ -487,19 +385,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -522,9 +414,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -839,15 +730,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B188250-FD6A-4115-BF20-37BD96D438DD}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -878,657 +769,549 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>189525</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>197836</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>197848</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>124873</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>197846</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>197839</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>97968</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>124866</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>98341</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>125128</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>107212</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>197845</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>124850</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>197849</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>124852</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>127</v>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>197844</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>197842</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
